--- a/data/dataThongtinHDThayThe_case1.xlsx
+++ b/data/dataThongtinHDThayThe_case1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Stt</t>
   </si>
@@ -61,19 +61,25 @@
     <t>Công ty cổ phần MTA</t>
   </si>
   <si>
-    <t>Thanh toán tiền mặt</t>
-  </si>
-  <si>
     <t>test lập hóa đơn</t>
   </si>
   <si>
     <t>5%</t>
   </si>
   <si>
-    <t>1C22TKA</t>
-  </si>
-  <si>
     <t>Serial</t>
+  </si>
+  <si>
+    <t>1C22TGT</t>
+  </si>
+  <si>
+    <t>Thanh toán chuyển khoản</t>
+  </si>
+  <si>
+    <t>KH1</t>
+  </si>
+  <si>
+    <t>Số 289a Khuất Duy Tiến-Trung Hòa-Cầu Giấy-Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,8 +412,8 @@
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
@@ -425,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -459,20 +465,26 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataThongtinHDThayThe_case1.xlsx
+++ b/data/dataThongtinHDThayThe_case1.xlsx
@@ -70,9 +70,6 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>1C22TGT</t>
-  </si>
-  <si>
     <t>Thanh toán chuyển khoản</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Số 289a Khuất Duy Tiến-Trung Hòa-Cầu Giấy-Hà Nội</t>
+  </si>
+  <si>
+    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>

--- a/data/dataThongtinHDThayThe_case1.xlsx
+++ b/data/dataThongtinHDThayThe_case1.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
